--- a/data/Class NUR - Examination Results.xlsx
+++ b/data/Class NUR - Examination Results.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arcadia school\final examinantion 2023 excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D63377A-9534-4DBA-9441-167183F6B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39FEBC3-B06D-4B6A-8C28-BA775CA17552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Class!$D$1:$D$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -540,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,7 +583,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,6 +641,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -786,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +861,19 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -887,11 +909,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,125 +1129,126 @@
   <dimension ref="A1:BD36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.765625" style="37" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="4.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="37" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="14.4609375" style="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="8.33203125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.5546875" style="1" customWidth="1"/>
+    <col min="39" max="43" width="8.33203125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="4.5546875" style="1" customWidth="1"/>
+    <col min="45" max="49" width="8.33203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="4.5546875" style="1" customWidth="1"/>
+    <col min="51" max="51" width="4.109375" style="1" customWidth="1"/>
+    <col min="52" max="53" width="8.33203125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="12.88671875" style="1" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:56">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="23" t="s">
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="26" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="33" t="s">
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="34" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="29" t="s">
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="27" t="s">
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1416,7 +1434,7 @@
       <c r="E3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="23" t="s">
         <v>135</v>
       </c>
       <c r="G3" s="19" t="s">
@@ -1519,44 +1537,44 @@
       </c>
       <c r="AL3" s="15"/>
       <c r="AM3" s="16">
-        <f t="shared" ref="AM3:AQ3" si="1">ROUND(AG3/80*100,0)</f>
-        <v>121</v>
+        <f>ROUND(AG3/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AN3" s="16">
-        <f t="shared" si="1"/>
-        <v>118</v>
+        <f>ROUND(AH3/100*100,0)</f>
+        <v>94</v>
       </c>
       <c r="AO3" s="16">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f>ROUND(AI3/100*100,0)</f>
+        <v>98</v>
       </c>
       <c r="AP3" s="16">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>ROUND(AJ3/100*100,0)</f>
+        <v>100</v>
       </c>
       <c r="AQ3" s="16">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <f>ROUND(AK3/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AR3" s="16"/>
       <c r="AS3" s="16" t="str">
-        <f t="shared" ref="AS3:AW3" si="2">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AS3:AW3" si="1">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AT3" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AU3" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AV3" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AW3" s="16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AX3" s="16"/>
@@ -1564,11 +1582,11 @@
         <v>500</v>
       </c>
       <c r="AZ3" s="17">
-        <f t="shared" ref="AZ3" si="3">SUM(AG3:AL3)</f>
+        <f t="shared" ref="AZ3" si="2">SUM(AG3:AL3)</f>
         <v>484</v>
       </c>
       <c r="BA3" s="3">
-        <f t="shared" ref="BA3" si="4">ROUND(AZ3/AY3*100,0)</f>
+        <f t="shared" ref="BA3" si="3">ROUND(AZ3/AY3*100,0)</f>
         <v>97</v>
       </c>
       <c r="BB3" s="18">
@@ -1581,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -1597,7 +1615,7 @@
       <c r="E4" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="24" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -1679,65 +1697,65 @@
         <v>42</v>
       </c>
       <c r="AG4" s="15">
-        <f t="shared" ref="AG4:AG36" si="5">(IF(I4="Ab",0,IF(I4="NA",0,I4))+IF(O4="Ab",0,IF(O4="NA",0,O4))+IF(U4="Ab",0,IF(U4="NA",0,U4))+IF(AA4="Ab",0,IF(AA4="NA",0,AA4)))</f>
+        <f t="shared" ref="AG4:AG36" si="4">(IF(I4="Ab",0,IF(I4="NA",0,I4))+IF(O4="Ab",0,IF(O4="NA",0,O4))+IF(U4="Ab",0,IF(U4="NA",0,U4))+IF(AA4="Ab",0,IF(AA4="NA",0,AA4)))</f>
         <v>80</v>
       </c>
       <c r="AH4" s="15">
-        <f t="shared" ref="AH4:AH36" si="6">(IF(J4="Ab",0,IF(J4="NA",0,J4))+IF(P4="Ab",0,IF(P4="NA",0,P4))+IF(V4="Ab",0,IF(V4="NA",0,V4))+IF(AB4="Ab",0,IF(AB4="NA",0,AB4)))</f>
+        <f t="shared" ref="AH4:AH36" si="5">(IF(J4="Ab",0,IF(J4="NA",0,J4))+IF(P4="Ab",0,IF(P4="NA",0,P4))+IF(V4="Ab",0,IF(V4="NA",0,V4))+IF(AB4="Ab",0,IF(AB4="NA",0,AB4)))</f>
         <v>79</v>
       </c>
       <c r="AI4" s="15">
-        <f t="shared" ref="AI4:AI36" si="7">(IF(K4="Ab",0,IF(K4="NA",0,K4))+IF(Q4="Ab",0,IF(Q4="NA",0,Q4))+IF(W4="Ab",0,IF(W4="NA",0,W4))+IF(AC4="Ab",0,IF(AC4="NA",0,AC4)))</f>
+        <f t="shared" ref="AI4:AI36" si="6">(IF(K4="Ab",0,IF(K4="NA",0,K4))+IF(Q4="Ab",0,IF(Q4="NA",0,Q4))+IF(W4="Ab",0,IF(W4="NA",0,W4))+IF(AC4="Ab",0,IF(AC4="NA",0,AC4)))</f>
         <v>79</v>
       </c>
       <c r="AJ4" s="15">
-        <f t="shared" ref="AJ4:AJ36" si="8">(IF(L4="Ab",0,IF(L4="NA",0,L4))+IF(R4="Ab",0,IF(R4="NA",0,R4))+IF(X4="Ab",0,IF(X4="NA",0,X4))+IF(AD4="Ab",0,IF(AD4="NA",0,AD4)))</f>
+        <f t="shared" ref="AJ4:AJ36" si="7">(IF(L4="Ab",0,IF(L4="NA",0,L4))+IF(R4="Ab",0,IF(R4="NA",0,R4))+IF(X4="Ab",0,IF(X4="NA",0,X4))+IF(AD4="Ab",0,IF(AD4="NA",0,AD4)))</f>
         <v>80</v>
       </c>
       <c r="AK4" s="15">
-        <f t="shared" ref="AK4:AK36" si="9">(IF(M4="Ab",0,IF(M4="NA",0,M4))+IF(S4="Ab",0,IF(S4="NA",0,S4))+IF(Y4="Ab",0,IF(Y4="NA",0,Y4))+IF(AE4="Ab",0,IF(AE4="NA",0,AE4)))</f>
+        <f t="shared" ref="AK4:AK36" si="8">(IF(M4="Ab",0,IF(M4="NA",0,M4))+IF(S4="Ab",0,IF(S4="NA",0,S4))+IF(Y4="Ab",0,IF(Y4="NA",0,Y4))+IF(AE4="Ab",0,IF(AE4="NA",0,AE4)))</f>
         <v>80</v>
       </c>
       <c r="AL4" s="15"/>
       <c r="AM4" s="16">
-        <f t="shared" ref="AM4:AM36" si="10">ROUND(AG4/80*100,0)</f>
+        <f>ROUND(AG4/80*100,0)</f>
         <v>100</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" ref="AN4:AN36" si="11">ROUND(AH4/80*100,0)</f>
+        <f>ROUND(AH4/80*100,0)</f>
         <v>99</v>
       </c>
       <c r="AO4" s="16">
-        <f t="shared" ref="AO4:AO36" si="12">ROUND(AI4/80*100,0)</f>
+        <f>ROUND(AI4/80*100,0)</f>
         <v>99</v>
       </c>
       <c r="AP4" s="16">
-        <f t="shared" ref="AP4:AP36" si="13">ROUND(AJ4/80*100,0)</f>
+        <f>ROUND(AJ4/80*100,0)</f>
         <v>100</v>
       </c>
       <c r="AQ4" s="16">
-        <f t="shared" ref="AQ4:AQ36" si="14">ROUND(AK4/80*100,0)</f>
+        <f>ROUND(AK4/80*100,0)</f>
         <v>100</v>
       </c>
       <c r="AR4" s="16"/>
       <c r="AS4" s="16" t="str">
-        <f t="shared" ref="AS4:AS36" si="15">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AS4:AS36" si="9">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AT4" s="16" t="str">
-        <f t="shared" ref="AT4:AT36" si="16">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AT4:AT36" si="10">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AU4" s="16" t="str">
-        <f t="shared" ref="AU4:AU36" si="17">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AU4:AU36" si="11">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AV4" s="16" t="str">
-        <f t="shared" ref="AV4:AV36" si="18">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AV4:AV36" si="12">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AW4" s="16" t="str">
-        <f t="shared" ref="AW4:AW36" si="19">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AW4:AW36" si="13">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AX4" s="16"/>
@@ -1745,11 +1763,11 @@
         <v>400</v>
       </c>
       <c r="AZ4" s="17">
-        <f t="shared" ref="AZ4:AZ36" si="20">SUM(AG4:AL4)</f>
+        <f t="shared" ref="AZ4:AZ36" si="14">SUM(AG4:AL4)</f>
         <v>398</v>
       </c>
       <c r="BA4" s="3">
-        <f t="shared" ref="BA4:BA36" si="21">ROUND(AZ4/AY4*100,0)</f>
+        <f t="shared" ref="BA4:BA36" si="15">ROUND(AZ4/AY4*100,0)</f>
         <v>100</v>
       </c>
       <c r="BB4" s="20">
@@ -1762,7 +1780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1778,7 +1796,7 @@
       <c r="E5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="23" t="s">
         <v>137</v>
       </c>
       <c r="G5" s="19" t="s">
@@ -1860,65 +1878,65 @@
         <v>42</v>
       </c>
       <c r="AG5" s="15">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="AH5" s="15">
         <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="AH5" s="15">
+        <v>91</v>
+      </c>
+      <c r="AI5" s="15">
         <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="AI5" s="15">
+        <v>95</v>
+      </c>
+      <c r="AJ5" s="15">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="AJ5" s="15">
+        <v>97</v>
+      </c>
+      <c r="AK5" s="15">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="AK5" s="15">
-        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="AL5" s="15"/>
       <c r="AM5" s="16">
-        <f t="shared" si="10"/>
-        <v>115</v>
+        <f t="shared" ref="AM5:AM36" si="16">ROUND(AG5/100*100,0)</f>
+        <v>92</v>
       </c>
       <c r="AN5" s="16">
-        <f t="shared" si="11"/>
-        <v>114</v>
+        <f t="shared" ref="AN5:AN36" si="17">ROUND(AH5/100*100,0)</f>
+        <v>91</v>
       </c>
       <c r="AO5" s="16">
-        <f t="shared" si="12"/>
-        <v>119</v>
+        <f t="shared" ref="AO5:AO36" si="18">ROUND(AI5/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AP5" s="16">
-        <f t="shared" si="13"/>
-        <v>121</v>
+        <f t="shared" ref="AP5:AP36" si="19">ROUND(AJ5/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AQ5" s="16">
-        <f t="shared" si="14"/>
-        <v>114</v>
+        <f t="shared" ref="AQ5:AQ36" si="20">ROUND(AK5/100*100,0)</f>
+        <v>91</v>
       </c>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT5" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU5" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV5" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW5" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX5" s="16"/>
@@ -1926,11 +1944,11 @@
         <v>500</v>
       </c>
       <c r="AZ5" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>466</v>
       </c>
       <c r="BA5" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="BB5" s="18">
@@ -1943,7 +1961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -1959,7 +1977,7 @@
       <c r="E6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="24" t="s">
         <v>138</v>
       </c>
       <c r="G6" s="21" t="s">
@@ -2041,65 +2059,65 @@
         <v>42</v>
       </c>
       <c r="AG6" s="15">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="AH6" s="15">
         <f t="shared" si="5"/>
         <v>77</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AI6" s="15">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="AI6" s="15">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="15">
         <f t="shared" si="7"/>
         <v>76</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AK6" s="15">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="AK6" s="15">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="AL6" s="15"/>
       <c r="AM6" s="16">
-        <f t="shared" si="10"/>
+        <f>ROUND(AG6/80*100,0)</f>
         <v>96</v>
       </c>
       <c r="AN6" s="16">
-        <f t="shared" si="11"/>
+        <f>ROUND(AH6/80*100,0)</f>
         <v>96</v>
       </c>
       <c r="AO6" s="16">
-        <f t="shared" si="12"/>
+        <f>ROUND(AI6/80*100,0)</f>
         <v>95</v>
       </c>
       <c r="AP6" s="16">
-        <f t="shared" si="13"/>
+        <f>ROUND(AJ6/80*100,0)</f>
         <v>95</v>
       </c>
       <c r="AQ6" s="16">
-        <f t="shared" si="14"/>
+        <f>ROUND(AK6/80*100,0)</f>
         <v>100</v>
       </c>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT6" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU6" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV6" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW6" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX6" s="16"/>
@@ -2107,11 +2125,11 @@
         <v>400</v>
       </c>
       <c r="AZ6" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>386</v>
       </c>
       <c r="BA6" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="BB6" s="20">
@@ -2124,175 +2142,175 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+    <row r="7" spans="1:56">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="26">
         <v>3164</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="27">
         <v>7351430724</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="20">
+      <c r="I7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="26">
         <v>15</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="26">
         <v>13</v>
       </c>
-      <c r="W7" s="20">
+      <c r="W7" s="26">
         <v>17</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="26">
         <v>16</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="26">
         <v>15</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="26">
         <v>22</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="26">
         <v>23</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="26">
         <v>22</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="26">
         <v>24</v>
       </c>
-      <c r="AE7" s="20">
+      <c r="AE7" s="26">
         <v>24</v>
       </c>
-      <c r="AF7" s="20" t="s">
+      <c r="AF7" s="26" t="s">
         <v>42</v>
       </c>
       <c r="AG7" s="15">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="AH7" s="15">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="AH7" s="15">
+        <v>36</v>
+      </c>
+      <c r="AI7" s="15">
         <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="AI7" s="15">
+        <v>39</v>
+      </c>
+      <c r="AJ7" s="15">
         <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="AJ7" s="15">
+        <v>40</v>
+      </c>
+      <c r="AK7" s="15">
         <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="AK7" s="15">
-        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="AL7" s="15"/>
       <c r="AM7" s="16">
-        <f t="shared" si="10"/>
-        <v>46</v>
+        <f>ROUND(AG7/50*100,0)</f>
+        <v>74</v>
       </c>
       <c r="AN7" s="16">
-        <f t="shared" si="11"/>
-        <v>45</v>
+        <f>ROUND(AH7/50*100,0)</f>
+        <v>72</v>
       </c>
       <c r="AO7" s="16">
-        <f t="shared" si="12"/>
-        <v>49</v>
+        <f>ROUND(AI7/50*100,0)</f>
+        <v>78</v>
       </c>
       <c r="AP7" s="16">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <f>ROUND(AJ7/50*100,0)</f>
+        <v>80</v>
       </c>
       <c r="AQ7" s="16">
-        <f t="shared" si="14"/>
-        <v>49</v>
+        <f>ROUND(AK7/50*100,0)</f>
+        <v>78</v>
       </c>
       <c r="AR7" s="16"/>
       <c r="AS7" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>C2</v>
+        <f t="shared" si="9"/>
+        <v>B1</v>
       </c>
       <c r="AT7" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
+        <f t="shared" si="10"/>
+        <v>B1</v>
       </c>
       <c r="AU7" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>C2</v>
+        <f t="shared" si="11"/>
+        <v>B1</v>
       </c>
       <c r="AV7" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>C2</v>
+        <f t="shared" si="12"/>
+        <v>B1</v>
       </c>
       <c r="AW7" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>C2</v>
+        <f t="shared" si="13"/>
+        <v>B1</v>
       </c>
       <c r="AX7" s="16"/>
       <c r="AY7" s="21">
         <v>250</v>
       </c>
       <c r="AZ7" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>191</v>
       </c>
       <c r="BA7" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="BB7" s="20">
@@ -2301,11 +2319,11 @@
       <c r="BC7" s="20">
         <v>170</v>
       </c>
-      <c r="BD7" s="21">
+      <c r="BD7" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -2321,7 +2339,7 @@
       <c r="E8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="24" t="s">
         <v>140</v>
       </c>
       <c r="G8" s="21" t="s">
@@ -2403,65 +2421,65 @@
         <v>42</v>
       </c>
       <c r="AG8" s="15">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="AH8" s="15">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="AH8" s="15">
+        <v>46</v>
+      </c>
+      <c r="AI8" s="15">
         <f t="shared" si="6"/>
-        <v>46</v>
-      </c>
-      <c r="AI8" s="15">
+        <v>48</v>
+      </c>
+      <c r="AJ8" s="15">
         <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="AJ8" s="15">
+        <v>64</v>
+      </c>
+      <c r="AK8" s="15">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="AK8" s="15">
-        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="AL8" s="15"/>
       <c r="AM8" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AM8:AM10" si="21">ROUND(AG8/80*100,0)</f>
         <v>59</v>
       </c>
       <c r="AN8" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AN8:AN10" si="22">ROUND(AH8/80*100,0)</f>
         <v>58</v>
       </c>
       <c r="AO8" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AO8:AO10" si="23">ROUND(AI8/80*100,0)</f>
         <v>60</v>
       </c>
       <c r="AP8" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AP8:AP10" si="24">ROUND(AJ8/80*100,0)</f>
         <v>80</v>
       </c>
       <c r="AQ8" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AQ8:AQ10" si="25">ROUND(AK8/80*100,0)</f>
         <v>68</v>
       </c>
       <c r="AR8" s="16"/>
       <c r="AS8" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT8" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>C1</v>
       </c>
       <c r="AU8" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>C1</v>
       </c>
       <c r="AV8" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
       <c r="AW8" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>B2</v>
       </c>
       <c r="AX8" s="16"/>
@@ -2469,11 +2487,11 @@
         <v>400</v>
       </c>
       <c r="AZ8" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>259</v>
       </c>
       <c r="BA8" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="BB8" s="20">
@@ -2486,7 +2504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -2502,7 +2520,7 @@
       <c r="E9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="24" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="21" t="s">
@@ -2584,65 +2602,65 @@
         <v>42</v>
       </c>
       <c r="AG9" s="15">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AH9" s="15">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="AH9" s="15">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="15">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AI9" s="15">
+        <v>53</v>
+      </c>
+      <c r="AJ9" s="15">
         <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-      <c r="AJ9" s="15">
+        <v>69</v>
+      </c>
+      <c r="AK9" s="15">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="AK9" s="15">
-        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="AL9" s="15"/>
       <c r="AM9" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
       <c r="AN9" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>75</v>
       </c>
       <c r="AO9" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>66</v>
       </c>
       <c r="AP9" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="AQ9" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>85</v>
       </c>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AT9" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
       <c r="AU9" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>B2</v>
       </c>
       <c r="AV9" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A2</v>
       </c>
       <c r="AW9" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A2</v>
       </c>
       <c r="AX9" s="16"/>
@@ -2650,11 +2668,11 @@
         <v>400</v>
       </c>
       <c r="AZ9" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>321</v>
       </c>
       <c r="BA9" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="BB9" s="20">
@@ -2667,7 +2685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -2683,7 +2701,7 @@
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="24" t="s">
         <v>142</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -2765,65 +2783,65 @@
         <v>44</v>
       </c>
       <c r="AG10" s="15">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="AH10" s="15">
         <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AI10" s="15">
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="AH10" s="15">
-        <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="AI10" s="15">
+      <c r="AJ10" s="15">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="AJ10" s="15">
+        <v>63</v>
+      </c>
+      <c r="AK10" s="15">
         <f t="shared" si="8"/>
-        <v>63</v>
-      </c>
-      <c r="AK10" s="15">
-        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="AL10" s="15"/>
       <c r="AM10" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>54</v>
       </c>
       <c r="AN10" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="AO10" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="AP10" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="AQ10" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>65</v>
       </c>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT10" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>C1</v>
       </c>
       <c r="AU10" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>C1</v>
       </c>
       <c r="AV10" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
       <c r="AW10" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>B2</v>
       </c>
       <c r="AX10" s="16"/>
@@ -2831,11 +2849,11 @@
         <v>400</v>
       </c>
       <c r="AZ10" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>248</v>
       </c>
       <c r="BA10" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
       <c r="BB10" s="20">
@@ -2848,175 +2866,175 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A11" s="20">
+    <row r="11" spans="1:56">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="26">
         <v>3168</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="27">
         <v>8171344970</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U11" s="20">
+      <c r="I11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="26">
         <v>15</v>
       </c>
-      <c r="V11" s="20">
+      <c r="V11" s="26">
         <v>15</v>
       </c>
-      <c r="W11" s="20">
+      <c r="W11" s="26">
         <v>15</v>
       </c>
-      <c r="X11" s="20">
+      <c r="X11" s="26">
         <v>15</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y11" s="26">
         <v>15</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="Z11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA11" s="20">
+      <c r="AA11" s="26">
         <v>23</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="AB11" s="26">
         <v>22</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="26">
         <v>23</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="26">
         <v>28</v>
       </c>
-      <c r="AE11" s="20">
+      <c r="AE11" s="26">
         <v>24</v>
       </c>
-      <c r="AF11" s="20" t="s">
+      <c r="AF11" s="26" t="s">
         <v>42</v>
       </c>
       <c r="AG11" s="15">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="AH11" s="15">
         <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AI11" s="15">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="AH11" s="15">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="AI11" s="15">
+      <c r="AJ11" s="15">
         <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="AJ11" s="15">
+        <v>43</v>
+      </c>
+      <c r="AK11" s="15">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-      <c r="AK11" s="15">
-        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="AL11" s="15"/>
       <c r="AM11" s="16">
-        <f t="shared" si="10"/>
-        <v>48</v>
+        <f>ROUND(AG11/50*100,0)</f>
+        <v>76</v>
       </c>
       <c r="AN11" s="16">
-        <f t="shared" si="11"/>
-        <v>46</v>
+        <f>ROUND(AH11/50*100,0)</f>
+        <v>74</v>
       </c>
       <c r="AO11" s="16">
-        <f t="shared" si="12"/>
-        <v>48</v>
+        <f>ROUND(AI11/50*100,0)</f>
+        <v>76</v>
       </c>
       <c r="AP11" s="16">
-        <f t="shared" si="13"/>
-        <v>54</v>
+        <f>ROUND(AJ11/50*100,0)</f>
+        <v>86</v>
       </c>
       <c r="AQ11" s="16">
-        <f t="shared" si="14"/>
-        <v>49</v>
+        <f>ROUND(AK11/50*100,0)</f>
+        <v>78</v>
       </c>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>C2</v>
+        <f t="shared" si="9"/>
+        <v>B1</v>
       </c>
       <c r="AT11" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
+        <f t="shared" si="10"/>
+        <v>B1</v>
       </c>
       <c r="AU11" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>C2</v>
+        <f t="shared" si="11"/>
+        <v>B1</v>
       </c>
       <c r="AV11" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>C1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW11" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>C2</v>
+        <f t="shared" si="13"/>
+        <v>B1</v>
       </c>
       <c r="AX11" s="16"/>
       <c r="AY11" s="21">
         <v>250</v>
       </c>
       <c r="AZ11" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>195</v>
       </c>
       <c r="BA11" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="BB11" s="20">
@@ -3025,11 +3043,11 @@
       <c r="BC11" s="20">
         <v>170</v>
       </c>
-      <c r="BD11" s="21">
+      <c r="BD11" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -3045,7 +3063,7 @@
       <c r="E12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="23" t="s">
         <v>144</v>
       </c>
       <c r="G12" s="19" t="s">
@@ -3127,65 +3145,65 @@
         <v>42</v>
       </c>
       <c r="AG12" s="15">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AH12" s="15">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="AH12" s="15">
+        <v>94</v>
+      </c>
+      <c r="AI12" s="15">
         <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="AI12" s="15">
+        <v>95</v>
+      </c>
+      <c r="AJ12" s="15">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="AJ12" s="15">
+        <v>98</v>
+      </c>
+      <c r="AK12" s="15">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="AK12" s="15">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
       <c r="AL12" s="15"/>
       <c r="AM12" s="16">
-        <f t="shared" si="10"/>
-        <v>124</v>
+        <f t="shared" si="16"/>
+        <v>99</v>
       </c>
       <c r="AN12" s="16">
-        <f t="shared" si="11"/>
-        <v>118</v>
+        <f t="shared" si="17"/>
+        <v>94</v>
       </c>
       <c r="AO12" s="16">
-        <f t="shared" si="12"/>
-        <v>119</v>
+        <f t="shared" si="18"/>
+        <v>95</v>
       </c>
       <c r="AP12" s="16">
-        <f t="shared" si="13"/>
-        <v>123</v>
+        <f t="shared" si="19"/>
+        <v>98</v>
       </c>
       <c r="AQ12" s="16">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" si="20"/>
+        <v>98</v>
       </c>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT12" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU12" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV12" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW12" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX12" s="16"/>
@@ -3193,11 +3211,11 @@
         <v>500</v>
       </c>
       <c r="AZ12" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>484</v>
       </c>
       <c r="BA12" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="BB12" s="18">
@@ -3210,7 +3228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3226,7 +3244,7 @@
       <c r="E13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="24" t="s">
         <v>145</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -3308,65 +3326,65 @@
         <v>44</v>
       </c>
       <c r="AG13" s="15">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AH13" s="15">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="AH13" s="15">
+        <v>45</v>
+      </c>
+      <c r="AI13" s="15">
         <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="AI13" s="15">
+        <v>43</v>
+      </c>
+      <c r="AJ13" s="15">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="AJ13" s="15">
+        <v>58</v>
+      </c>
+      <c r="AK13" s="15">
         <f t="shared" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="AK13" s="15">
-        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="AL13" s="15"/>
       <c r="AM13" s="16">
-        <f t="shared" si="10"/>
+        <f>ROUND(AG13/80*100,0)</f>
         <v>50</v>
       </c>
       <c r="AN13" s="16">
-        <f t="shared" si="11"/>
+        <f>ROUND(AH13/80*100,0)</f>
         <v>56</v>
       </c>
       <c r="AO13" s="16">
-        <f t="shared" si="12"/>
+        <f>ROUND(AI13/80*100,0)</f>
         <v>54</v>
       </c>
       <c r="AP13" s="16">
-        <f t="shared" si="13"/>
+        <f>ROUND(AJ13/80*100,0)</f>
         <v>73</v>
       </c>
       <c r="AQ13" s="16">
-        <f t="shared" si="14"/>
+        <f>ROUND(AK13/80*100,0)</f>
         <v>55</v>
       </c>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>C2</v>
       </c>
       <c r="AT13" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>C1</v>
       </c>
       <c r="AU13" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>C1</v>
       </c>
       <c r="AV13" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
       <c r="AW13" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>C1</v>
       </c>
       <c r="AX13" s="16"/>
@@ -3374,11 +3392,11 @@
         <v>400</v>
       </c>
       <c r="AZ13" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>230</v>
       </c>
       <c r="BA13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="BB13" s="20">
@@ -3391,7 +3409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -3407,7 +3425,7 @@
       <c r="E14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="23" t="s">
         <v>146</v>
       </c>
       <c r="G14" s="19" t="s">
@@ -3489,77 +3507,77 @@
         <v>42</v>
       </c>
       <c r="AG14" s="15">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="AH14" s="15">
         <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="AH14" s="15">
+        <v>81</v>
+      </c>
+      <c r="AI14" s="15">
         <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="AI14" s="15">
+        <v>79</v>
+      </c>
+      <c r="AJ14" s="15">
         <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-      <c r="AJ14" s="15">
+        <v>90</v>
+      </c>
+      <c r="AK14" s="15">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="AK14" s="15">
-        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="AL14" s="15"/>
       <c r="AM14" s="16">
-        <f t="shared" si="10"/>
-        <v>109</v>
+        <f t="shared" si="16"/>
+        <v>87</v>
       </c>
       <c r="AN14" s="16">
-        <f t="shared" si="11"/>
-        <v>101</v>
+        <f t="shared" si="17"/>
+        <v>81</v>
       </c>
       <c r="AO14" s="16">
-        <f t="shared" si="12"/>
-        <v>99</v>
+        <f t="shared" si="18"/>
+        <v>79</v>
       </c>
       <c r="AP14" s="16">
-        <f t="shared" si="13"/>
-        <v>113</v>
+        <f t="shared" si="19"/>
+        <v>90</v>
       </c>
       <c r="AQ14" s="16">
-        <f t="shared" si="14"/>
-        <v>110</v>
+        <f t="shared" si="20"/>
+        <v>88</v>
       </c>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
+        <f t="shared" si="9"/>
+        <v>A2</v>
       </c>
       <c r="AT14" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
+        <f t="shared" si="10"/>
+        <v>A2</v>
       </c>
       <c r="AU14" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
+        <f t="shared" si="11"/>
+        <v>B1</v>
       </c>
       <c r="AV14" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW14" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX14" s="16"/>
       <c r="AY14" s="19">
         <v>500</v>
       </c>
       <c r="AZ14" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>425</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="BB14" s="18">
@@ -3572,7 +3590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3588,7 +3606,7 @@
       <c r="E15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="23" t="s">
         <v>147</v>
       </c>
       <c r="G15" s="19" t="s">
@@ -3670,77 +3688,77 @@
         <v>41</v>
       </c>
       <c r="AG15" s="15">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="AH15" s="15">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="AH15" s="15">
+        <v>82</v>
+      </c>
+      <c r="AI15" s="15">
         <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="AJ15" s="15">
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="AI15" s="15">
-        <f t="shared" si="7"/>
-        <v>83</v>
-      </c>
-      <c r="AJ15" s="15">
+      <c r="AK15" s="15">
         <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="AK15" s="15">
-        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="AL15" s="15"/>
       <c r="AM15" s="16">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>88</v>
       </c>
       <c r="AN15" s="16">
-        <f t="shared" si="11"/>
-        <v>103</v>
+        <f t="shared" si="17"/>
+        <v>82</v>
       </c>
       <c r="AO15" s="16">
-        <f t="shared" si="12"/>
-        <v>104</v>
+        <f t="shared" si="18"/>
+        <v>83</v>
       </c>
       <c r="AP15" s="16">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="19"/>
+        <v>82</v>
       </c>
       <c r="AQ15" s="16">
-        <f t="shared" si="14"/>
-        <v>108</v>
+        <f t="shared" si="20"/>
+        <v>86</v>
       </c>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
+        <f t="shared" si="9"/>
+        <v>A2</v>
       </c>
       <c r="AT15" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
+        <f t="shared" si="10"/>
+        <v>A2</v>
       </c>
       <c r="AU15" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
+        <f t="shared" si="11"/>
+        <v>A2</v>
       </c>
       <c r="AV15" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW15" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX15" s="16"/>
       <c r="AY15" s="19">
         <v>500</v>
       </c>
       <c r="AZ15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>421</v>
       </c>
       <c r="BA15" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="BB15" s="18">
@@ -3753,7 +3771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56">
       <c r="A16" s="18">
         <v>16</v>
       </c>
@@ -3769,7 +3787,7 @@
       <c r="E16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="23" t="s">
         <v>148</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -3851,77 +3869,77 @@
         <v>42</v>
       </c>
       <c r="AG16" s="15">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="AH16" s="15">
         <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="AH16" s="15">
+        <v>87</v>
+      </c>
+      <c r="AI16" s="15">
         <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="AI16" s="15">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="15">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="AJ16" s="15">
+        <v>91</v>
+      </c>
+      <c r="AK16" s="15">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="AK16" s="15">
-        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="AL16" s="15"/>
       <c r="AM16" s="16">
-        <f t="shared" si="10"/>
-        <v>110</v>
+        <f t="shared" si="16"/>
+        <v>88</v>
       </c>
       <c r="AN16" s="16">
-        <f t="shared" si="11"/>
-        <v>109</v>
+        <f t="shared" si="17"/>
+        <v>87</v>
       </c>
       <c r="AO16" s="16">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <f t="shared" si="18"/>
+        <v>80</v>
       </c>
       <c r="AP16" s="16">
-        <f t="shared" si="13"/>
-        <v>114</v>
+        <f t="shared" si="19"/>
+        <v>91</v>
       </c>
       <c r="AQ16" s="16">
-        <f t="shared" si="14"/>
-        <v>105</v>
+        <f t="shared" si="20"/>
+        <v>84</v>
       </c>
       <c r="AR16" s="16"/>
       <c r="AS16" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
+        <v>A2</v>
+      </c>
+      <c r="AT16" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>A2</v>
+      </c>
+      <c r="AU16" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>B1</v>
+      </c>
+      <c r="AV16" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
-      <c r="AT16" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU16" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV16" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
       <c r="AW16" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX16" s="16"/>
       <c r="AY16" s="19">
         <v>500</v>
       </c>
       <c r="AZ16" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>430</v>
       </c>
       <c r="BA16" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="BB16" s="18">
@@ -3934,7 +3952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56">
       <c r="A17" s="18">
         <v>17</v>
       </c>
@@ -3950,7 +3968,7 @@
       <c r="E17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="23" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="19" t="s">
@@ -4032,65 +4050,65 @@
         <v>42</v>
       </c>
       <c r="AG17" s="15">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AH17" s="15">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="AH17" s="15">
+        <v>96</v>
+      </c>
+      <c r="AI17" s="15">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="AI17" s="15">
+      <c r="AJ17" s="15">
         <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="AJ17" s="15">
+        <v>98</v>
+      </c>
+      <c r="AK17" s="15">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="AK17" s="15">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL17" s="15"/>
       <c r="AM17" s="16">
-        <f t="shared" si="10"/>
-        <v>124</v>
+        <f t="shared" si="16"/>
+        <v>99</v>
       </c>
       <c r="AN17" s="16">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" si="17"/>
+        <v>96</v>
       </c>
       <c r="AO17" s="16">
-        <f t="shared" si="12"/>
-        <v>120</v>
+        <f t="shared" si="18"/>
+        <v>96</v>
       </c>
       <c r="AP17" s="16">
-        <f t="shared" si="13"/>
-        <v>123</v>
+        <f t="shared" si="19"/>
+        <v>98</v>
       </c>
       <c r="AQ17" s="16">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="20"/>
+        <v>100</v>
       </c>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT17" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU17" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV17" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW17" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX17" s="16"/>
@@ -4098,11 +4116,11 @@
         <v>500</v>
       </c>
       <c r="AZ17" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>489</v>
       </c>
       <c r="BA17" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>98</v>
       </c>
       <c r="BB17" s="18">
@@ -4115,7 +4133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56">
       <c r="A18" s="20">
         <v>18</v>
       </c>
@@ -4131,7 +4149,7 @@
       <c r="E18" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="24" t="s">
         <v>149</v>
       </c>
       <c r="G18" s="21" t="s">
@@ -4213,65 +4231,65 @@
         <v>44</v>
       </c>
       <c r="AG18" s="15">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="AH18" s="15">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="AH18" s="15">
+        <v>47</v>
+      </c>
+      <c r="AI18" s="15">
         <f t="shared" si="6"/>
-        <v>47</v>
-      </c>
-      <c r="AI18" s="15">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="15">
         <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="AJ18" s="15">
+        <v>61</v>
+      </c>
+      <c r="AK18" s="15">
         <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="AK18" s="15">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="AL18" s="15"/>
       <c r="AM18" s="16">
-        <f t="shared" si="10"/>
+        <f>ROUND(AG18/80*100,0)</f>
         <v>53</v>
       </c>
       <c r="AN18" s="16">
-        <f t="shared" si="11"/>
+        <f>ROUND(AH18/80*100,0)</f>
         <v>59</v>
       </c>
       <c r="AO18" s="16">
-        <f t="shared" si="12"/>
+        <f>ROUND(AI18/80*100,0)</f>
         <v>51</v>
       </c>
       <c r="AP18" s="16">
-        <f t="shared" si="13"/>
+        <f>ROUND(AJ18/80*100,0)</f>
         <v>76</v>
       </c>
       <c r="AQ18" s="16">
-        <f t="shared" si="14"/>
+        <f>ROUND(AK18/80*100,0)</f>
         <v>53</v>
       </c>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>C1</v>
       </c>
       <c r="AT18" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>C1</v>
       </c>
       <c r="AU18" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>C1</v>
       </c>
       <c r="AV18" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
       <c r="AW18" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>C1</v>
       </c>
       <c r="AX18" s="16"/>
@@ -4279,11 +4297,11 @@
         <v>400</v>
       </c>
       <c r="AZ18" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>233</v>
       </c>
       <c r="BA18" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
       <c r="BB18" s="20">
@@ -4296,175 +4314,175 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
+    <row r="19" spans="1:56">
+      <c r="A19" s="26">
         <v>19</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="26">
         <v>3161</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="27">
         <v>8057650164</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="20">
+      <c r="I19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="26">
         <v>12</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="26">
         <v>12</v>
       </c>
-      <c r="W19" s="20">
+      <c r="W19" s="26">
         <v>12</v>
       </c>
-      <c r="X19" s="20">
+      <c r="X19" s="26">
         <v>12</v>
       </c>
-      <c r="Y19" s="20">
+      <c r="Y19" s="26">
         <v>15</v>
       </c>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AA19" s="20">
+      <c r="AA19" s="26">
         <v>14</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="AB19" s="26">
         <v>16</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="26">
         <v>14</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="26">
         <v>18</v>
       </c>
-      <c r="AE19" s="20">
+      <c r="AE19" s="26">
         <v>15</v>
       </c>
-      <c r="AF19" s="20" t="s">
+      <c r="AF19" s="26" t="s">
         <v>44</v>
       </c>
       <c r="AG19" s="15">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AH19" s="15">
         <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AI19" s="15">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="AH19" s="15">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="AI19" s="15">
+      <c r="AJ19" s="15">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="AJ19" s="15">
+        <v>30</v>
+      </c>
+      <c r="AK19" s="15">
         <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="AK19" s="15">
-        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="AL19" s="15"/>
       <c r="AM19" s="16">
-        <f t="shared" si="10"/>
-        <v>33</v>
+        <f>ROUND(AG19/50*100,0)</f>
+        <v>52</v>
       </c>
       <c r="AN19" s="16">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f>ROUND(AH19/50*100,0)</f>
+        <v>56</v>
       </c>
       <c r="AO19" s="16">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <f>ROUND(AI19/50*100,0)</f>
+        <v>52</v>
       </c>
       <c r="AP19" s="16">
-        <f t="shared" si="13"/>
-        <v>38</v>
+        <f>ROUND(AJ19/50*100,0)</f>
+        <v>60</v>
       </c>
       <c r="AQ19" s="16">
-        <f t="shared" si="14"/>
-        <v>38</v>
+        <f>ROUND(AK19/50*100,0)</f>
+        <v>60</v>
       </c>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>D</v>
+        <f t="shared" si="9"/>
+        <v>C1</v>
       </c>
       <c r="AT19" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>D</v>
+        <f t="shared" si="10"/>
+        <v>C1</v>
       </c>
       <c r="AU19" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>D</v>
+        <f t="shared" si="11"/>
+        <v>C1</v>
       </c>
       <c r="AV19" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>D</v>
+        <f t="shared" si="12"/>
+        <v>C1</v>
       </c>
       <c r="AW19" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>D</v>
+        <f t="shared" si="13"/>
+        <v>C1</v>
       </c>
       <c r="AX19" s="16"/>
       <c r="AY19" s="21">
         <v>250</v>
       </c>
       <c r="AZ19" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>140</v>
       </c>
       <c r="BA19" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="BB19" s="20">
@@ -4473,11 +4491,11 @@
       <c r="BC19" s="20">
         <v>170</v>
       </c>
-      <c r="BD19" s="21">
+      <c r="BD19" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56">
       <c r="A20" s="18">
         <v>20</v>
       </c>
@@ -4493,7 +4511,7 @@
       <c r="E20" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -4575,77 +4593,77 @@
         <v>42</v>
       </c>
       <c r="AG20" s="15">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="AH20" s="15">
         <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="AI20" s="15">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="AJ20" s="15">
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="AH20" s="15">
-        <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="AI20" s="15">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="AJ20" s="15">
+      <c r="AK20" s="15">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="AK20" s="15">
-        <f t="shared" si="9"/>
         <v>85</v>
       </c>
       <c r="AL20" s="15"/>
       <c r="AM20" s="16">
-        <f t="shared" si="10"/>
-        <v>111</v>
+        <f t="shared" si="16"/>
+        <v>89</v>
       </c>
       <c r="AN20" s="16">
-        <f t="shared" si="11"/>
-        <v>95</v>
+        <f t="shared" si="17"/>
+        <v>76</v>
       </c>
       <c r="AO20" s="16">
-        <f t="shared" si="12"/>
-        <v>110</v>
+        <f t="shared" si="18"/>
+        <v>88</v>
       </c>
       <c r="AP20" s="16">
-        <f t="shared" si="13"/>
-        <v>111</v>
+        <f t="shared" si="19"/>
+        <v>89</v>
       </c>
       <c r="AQ20" s="16">
-        <f t="shared" si="14"/>
-        <v>106</v>
+        <f t="shared" si="20"/>
+        <v>85</v>
       </c>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
+        <f t="shared" si="9"/>
+        <v>A2</v>
       </c>
       <c r="AT20" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
+        <f t="shared" si="10"/>
+        <v>B1</v>
       </c>
       <c r="AU20" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
+        <f t="shared" si="11"/>
+        <v>A2</v>
       </c>
       <c r="AV20" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW20" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX20" s="16"/>
       <c r="AY20" s="19">
         <v>500</v>
       </c>
       <c r="AZ20" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>427</v>
       </c>
       <c r="BA20" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="BB20" s="18">
@@ -4658,7 +4676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56">
       <c r="A21" s="20">
         <v>21</v>
       </c>
@@ -4674,7 +4692,7 @@
       <c r="E21" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="24" t="s">
         <v>152</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -4756,65 +4774,65 @@
         <v>41</v>
       </c>
       <c r="AG21" s="15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AH21" s="15">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AH21" s="15">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="15">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="AI21" s="15">
+        <v>55</v>
+      </c>
+      <c r="AJ21" s="15">
         <f t="shared" si="7"/>
-        <v>55</v>
-      </c>
-      <c r="AJ21" s="15">
+        <v>72</v>
+      </c>
+      <c r="AK21" s="15">
         <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="AK21" s="15">
-        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="AL21" s="15"/>
       <c r="AM21" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AM21:AM22" si="26">ROUND(AG21/80*100,0)</f>
         <v>75</v>
       </c>
       <c r="AN21" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AN21:AN22" si="27">ROUND(AH21/80*100,0)</f>
         <v>73</v>
       </c>
       <c r="AO21" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AO21:AO22" si="28">ROUND(AI21/80*100,0)</f>
         <v>69</v>
       </c>
       <c r="AP21" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AP21:AP22" si="29">ROUND(AJ21/80*100,0)</f>
         <v>90</v>
       </c>
       <c r="AQ21" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AQ21:AQ22" si="30">ROUND(AK21/80*100,0)</f>
         <v>75</v>
       </c>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT21" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
       <c r="AU21" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>B2</v>
       </c>
       <c r="AV21" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A2</v>
       </c>
       <c r="AW21" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>B1</v>
       </c>
       <c r="AX21" s="16"/>
@@ -4822,11 +4840,11 @@
         <v>400</v>
       </c>
       <c r="AZ21" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>305</v>
       </c>
       <c r="BA21" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="BB21" s="20">
@@ -4836,10 +4854,10 @@
         <v>170</v>
       </c>
       <c r="BD21" s="21">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56">
       <c r="A22" s="20">
         <v>22</v>
       </c>
@@ -4855,7 +4873,7 @@
       <c r="E22" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="24" t="s">
         <v>153</v>
       </c>
       <c r="G22" s="21" t="s">
@@ -4937,65 +4955,65 @@
         <v>42</v>
       </c>
       <c r="AG22" s="15">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="AH22" s="15">
         <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="AI22" s="15">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="15">
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
-      <c r="AH22" s="15">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AI22" s="15">
-        <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="AJ22" s="15">
+      <c r="AK22" s="15">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="AK22" s="15">
-        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="AL22" s="15"/>
       <c r="AM22" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v>93</v>
       </c>
       <c r="AN22" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>75</v>
       </c>
       <c r="AO22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="AP22" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>93</v>
       </c>
       <c r="AQ22" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>85</v>
       </c>
       <c r="AR22" s="16"/>
       <c r="AS22" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT22" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
       <c r="AU22" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A2</v>
       </c>
       <c r="AV22" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW22" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A2</v>
       </c>
       <c r="AX22" s="16"/>
@@ -5003,11 +5021,11 @@
         <v>400</v>
       </c>
       <c r="AZ22" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>342</v>
       </c>
       <c r="BA22" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="BB22" s="20">
@@ -5017,10 +5035,10 @@
         <v>170</v>
       </c>
       <c r="BD22" s="21">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56">
       <c r="A23" s="18">
         <v>23</v>
       </c>
@@ -5036,7 +5054,7 @@
       <c r="E23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="23" t="s">
         <v>154</v>
       </c>
       <c r="G23" s="19" t="s">
@@ -5118,65 +5136,65 @@
         <v>42</v>
       </c>
       <c r="AG23" s="15">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH23" s="15">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="AH23" s="15">
+        <v>94</v>
+      </c>
+      <c r="AI23" s="15">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="AI23" s="15">
+      <c r="AJ23" s="15">
         <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="AJ23" s="15">
+        <v>96</v>
+      </c>
+      <c r="AK23" s="15">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="AK23" s="15">
-        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="AL23" s="15"/>
       <c r="AM23" s="16">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="16"/>
+        <v>98</v>
       </c>
       <c r="AN23" s="16">
-        <f t="shared" si="11"/>
-        <v>118</v>
+        <f t="shared" si="17"/>
+        <v>94</v>
       </c>
       <c r="AO23" s="16">
-        <f t="shared" si="12"/>
-        <v>118</v>
+        <f t="shared" si="18"/>
+        <v>94</v>
       </c>
       <c r="AP23" s="16">
-        <f t="shared" si="13"/>
-        <v>120</v>
+        <f t="shared" si="19"/>
+        <v>96</v>
       </c>
       <c r="AQ23" s="16">
-        <f t="shared" si="14"/>
-        <v>118</v>
+        <f t="shared" si="20"/>
+        <v>94</v>
       </c>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT23" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU23" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV23" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW23" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX23" s="16"/>
@@ -5184,11 +5202,11 @@
         <v>500</v>
       </c>
       <c r="AZ23" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>476</v>
       </c>
       <c r="BA23" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>95</v>
       </c>
       <c r="BB23" s="18">
@@ -5201,7 +5219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56">
       <c r="A24" s="18">
         <v>24</v>
       </c>
@@ -5217,7 +5235,7 @@
       <c r="E24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="23" t="s">
         <v>155</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -5299,65 +5317,65 @@
         <v>42</v>
       </c>
       <c r="AG24" s="15">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="AH24" s="15">
         <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="AH24" s="15">
+      <c r="AI24" s="15">
         <f t="shared" si="6"/>
-        <v>97</v>
-      </c>
-      <c r="AI24" s="15">
+        <v>96</v>
+      </c>
+      <c r="AJ24" s="15">
         <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-      <c r="AJ24" s="15">
+        <v>100</v>
+      </c>
+      <c r="AK24" s="15">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="AK24" s="15">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
       <c r="AL24" s="15"/>
       <c r="AM24" s="16">
-        <f t="shared" si="10"/>
-        <v>121</v>
+        <f t="shared" si="16"/>
+        <v>97</v>
       </c>
       <c r="AN24" s="16">
-        <f t="shared" si="11"/>
-        <v>121</v>
+        <f t="shared" si="17"/>
+        <v>97</v>
       </c>
       <c r="AO24" s="16">
-        <f t="shared" si="12"/>
-        <v>120</v>
+        <f t="shared" si="18"/>
+        <v>96</v>
       </c>
       <c r="AP24" s="16">
-        <f t="shared" si="13"/>
-        <v>125</v>
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
       <c r="AQ24" s="16">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="20"/>
+        <v>100</v>
       </c>
       <c r="AR24" s="16"/>
       <c r="AS24" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT24" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU24" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV24" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW24" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX24" s="16"/>
@@ -5365,11 +5383,11 @@
         <v>500</v>
       </c>
       <c r="AZ24" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>490</v>
       </c>
       <c r="BA24" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>98</v>
       </c>
       <c r="BB24" s="18">
@@ -5382,7 +5400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56">
       <c r="A25" s="20">
         <v>26</v>
       </c>
@@ -5398,7 +5416,7 @@
       <c r="E25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="24" t="s">
         <v>156</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -5480,65 +5498,65 @@
         <v>42</v>
       </c>
       <c r="AG25" s="15">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="AH25" s="15">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="AH25" s="15">
+      <c r="AI25" s="15">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="AI25" s="15">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="15">
         <f t="shared" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="15">
+        <v>75</v>
+      </c>
+      <c r="AK25" s="15">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="AK25" s="15">
-        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="AL25" s="15"/>
       <c r="AM25" s="16">
-        <f t="shared" si="10"/>
+        <f>ROUND(AG25/80*100,0)</f>
         <v>81</v>
       </c>
       <c r="AN25" s="16">
-        <f t="shared" si="11"/>
+        <f>ROUND(AH25/80*100,0)</f>
         <v>81</v>
       </c>
       <c r="AO25" s="16">
-        <f t="shared" si="12"/>
+        <f>ROUND(AI25/80*100,0)</f>
         <v>83</v>
       </c>
       <c r="AP25" s="16">
-        <f t="shared" si="13"/>
+        <f>ROUND(AJ25/80*100,0)</f>
         <v>94</v>
       </c>
       <c r="AQ25" s="16">
-        <f t="shared" si="14"/>
+        <f>ROUND(AK25/80*100,0)</f>
         <v>85</v>
       </c>
       <c r="AR25" s="16"/>
       <c r="AS25" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AT25" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A2</v>
       </c>
       <c r="AU25" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A2</v>
       </c>
       <c r="AV25" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW25" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A2</v>
       </c>
       <c r="AX25" s="16"/>
@@ -5546,11 +5564,11 @@
         <v>400</v>
       </c>
       <c r="AZ25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>339</v>
       </c>
       <c r="BA25" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="BB25" s="20">
@@ -5560,10 +5578,10 @@
         <v>170</v>
       </c>
       <c r="BD25" s="21">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56">
       <c r="A26" s="18">
         <v>27</v>
       </c>
@@ -5579,7 +5597,7 @@
       <c r="E26" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="23" t="s">
         <v>157</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -5661,77 +5679,77 @@
         <v>42</v>
       </c>
       <c r="AG26" s="15">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AH26" s="15">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="AH26" s="15">
+        <v>60</v>
+      </c>
+      <c r="AI26" s="15">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="AI26" s="15">
+        <v>62</v>
+      </c>
+      <c r="AJ26" s="15">
         <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="AJ26" s="15">
+        <v>78</v>
+      </c>
+      <c r="AK26" s="15">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="AK26" s="15">
-        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="AL26" s="15"/>
       <c r="AM26" s="16">
-        <f t="shared" si="10"/>
-        <v>89</v>
+        <f t="shared" si="16"/>
+        <v>71</v>
       </c>
       <c r="AN26" s="16">
-        <f t="shared" si="11"/>
-        <v>75</v>
+        <f t="shared" si="17"/>
+        <v>60</v>
       </c>
       <c r="AO26" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
+        <v>62</v>
+      </c>
+      <c r="AP26" s="16">
+        <f t="shared" si="19"/>
         <v>78</v>
       </c>
-      <c r="AP26" s="16">
-        <f t="shared" si="13"/>
-        <v>98</v>
-      </c>
       <c r="AQ26" s="16">
-        <f t="shared" si="14"/>
-        <v>76</v>
+        <f t="shared" si="20"/>
+        <v>61</v>
       </c>
       <c r="AR26" s="16"/>
       <c r="AS26" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A2</v>
+        <f t="shared" si="9"/>
+        <v>B1</v>
       </c>
       <c r="AT26" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
+        <v>C1</v>
+      </c>
+      <c r="AU26" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>B2</v>
+      </c>
+      <c r="AV26" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
-      <c r="AU26" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>B1</v>
-      </c>
-      <c r="AV26" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
       <c r="AW26" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
+        <f t="shared" si="13"/>
+        <v>B2</v>
       </c>
       <c r="AX26" s="16"/>
       <c r="AY26" s="19">
         <v>500</v>
       </c>
       <c r="AZ26" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="BA26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="BB26" s="18">
@@ -5744,7 +5762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56">
       <c r="A27" s="20">
         <v>28</v>
       </c>
@@ -5760,7 +5778,7 @@
       <c r="E27" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="24" t="s">
         <v>158</v>
       </c>
       <c r="G27" s="21" t="s">
@@ -5842,65 +5860,65 @@
         <v>42</v>
       </c>
       <c r="AG27" s="15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AH27" s="15">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AH27" s="15">
+        <v>57</v>
+      </c>
+      <c r="AI27" s="15">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="AI27" s="15">
+        <v>56</v>
+      </c>
+      <c r="AJ27" s="15">
         <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="AJ27" s="15">
+        <v>62</v>
+      </c>
+      <c r="AK27" s="15">
         <f t="shared" si="8"/>
-        <v>62</v>
-      </c>
-      <c r="AK27" s="15">
-        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="AL27" s="15"/>
       <c r="AM27" s="16">
-        <f t="shared" si="10"/>
+        <f>ROUND(AG27/80*100,0)</f>
         <v>75</v>
       </c>
       <c r="AN27" s="16">
-        <f t="shared" si="11"/>
+        <f>ROUND(AH27/80*100,0)</f>
         <v>71</v>
       </c>
       <c r="AO27" s="16">
-        <f t="shared" si="12"/>
+        <f>ROUND(AI27/80*100,0)</f>
         <v>70</v>
       </c>
       <c r="AP27" s="16">
-        <f t="shared" si="13"/>
+        <f>ROUND(AJ27/80*100,0)</f>
         <v>78</v>
       </c>
       <c r="AQ27" s="16">
-        <f t="shared" si="14"/>
+        <f>ROUND(AK27/80*100,0)</f>
         <v>66</v>
       </c>
       <c r="AR27" s="16"/>
       <c r="AS27" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT27" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>B1</v>
       </c>
       <c r="AU27" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>B2</v>
       </c>
       <c r="AV27" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B1</v>
       </c>
       <c r="AW27" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>B2</v>
       </c>
       <c r="AX27" s="16"/>
@@ -5908,11 +5926,11 @@
         <v>400</v>
       </c>
       <c r="AZ27" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
       <c r="BA27" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="BB27" s="20">
@@ -5922,10 +5940,10 @@
         <v>170</v>
       </c>
       <c r="BD27" s="21">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56">
       <c r="A28" s="18">
         <v>29</v>
       </c>
@@ -5941,7 +5959,7 @@
       <c r="E28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="23" t="s">
         <v>159</v>
       </c>
       <c r="G28" s="19" t="s">
@@ -6023,77 +6041,77 @@
         <v>42</v>
       </c>
       <c r="AG28" s="15">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="AH28" s="15">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="AH28" s="15">
+        <v>63</v>
+      </c>
+      <c r="AI28" s="15">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="AI28" s="15">
+        <v>54</v>
+      </c>
+      <c r="AJ28" s="15">
         <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="AJ28" s="15">
+        <v>70</v>
+      </c>
+      <c r="AK28" s="15">
         <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="AK28" s="15">
-        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="AL28" s="15"/>
       <c r="AM28" s="16">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <f t="shared" si="16"/>
+        <v>59</v>
       </c>
       <c r="AN28" s="16">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f t="shared" si="17"/>
+        <v>63</v>
       </c>
       <c r="AO28" s="16">
-        <f t="shared" si="12"/>
-        <v>68</v>
+        <f t="shared" si="18"/>
+        <v>54</v>
       </c>
       <c r="AP28" s="16">
-        <f t="shared" si="13"/>
-        <v>88</v>
+        <f t="shared" si="19"/>
+        <v>70</v>
       </c>
       <c r="AQ28" s="16">
-        <f t="shared" si="14"/>
-        <v>65</v>
+        <f t="shared" si="20"/>
+        <v>52</v>
       </c>
       <c r="AR28" s="16"/>
       <c r="AS28" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
+        <f t="shared" si="9"/>
+        <v>C1</v>
       </c>
       <c r="AT28" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>B1</v>
+        <f t="shared" si="10"/>
+        <v>B2</v>
       </c>
       <c r="AU28" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
+        <v>C1</v>
+      </c>
+      <c r="AV28" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>B2</v>
       </c>
-      <c r="AV28" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
       <c r="AW28" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>B2</v>
+        <f t="shared" si="13"/>
+        <v>C1</v>
       </c>
       <c r="AX28" s="16"/>
       <c r="AY28" s="19">
         <v>500</v>
       </c>
       <c r="AZ28" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>298</v>
       </c>
       <c r="BA28" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="BB28" s="18">
@@ -6106,7 +6124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56">
       <c r="A29" s="18">
         <v>30</v>
       </c>
@@ -6122,7 +6140,7 @@
       <c r="E29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="23" t="s">
         <v>160</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -6204,77 +6222,77 @@
         <v>42</v>
       </c>
       <c r="AG29" s="15">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="AH29" s="15">
         <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="AH29" s="15">
+        <v>77</v>
+      </c>
+      <c r="AI29" s="15">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="AI29" s="15">
+        <v>86</v>
+      </c>
+      <c r="AJ29" s="15">
         <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="AJ29" s="15">
+        <v>89</v>
+      </c>
+      <c r="AK29" s="15">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="AK29" s="15">
-        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="AL29" s="15"/>
       <c r="AM29" s="16">
-        <f t="shared" si="10"/>
-        <v>105</v>
+        <f t="shared" si="16"/>
+        <v>84</v>
       </c>
       <c r="AN29" s="16">
-        <f t="shared" si="11"/>
-        <v>96</v>
+        <f t="shared" si="17"/>
+        <v>77</v>
       </c>
       <c r="AO29" s="16">
-        <f t="shared" si="12"/>
-        <v>108</v>
+        <f t="shared" si="18"/>
+        <v>86</v>
       </c>
       <c r="AP29" s="16">
-        <f t="shared" si="13"/>
-        <v>111</v>
+        <f t="shared" si="19"/>
+        <v>89</v>
       </c>
       <c r="AQ29" s="16">
-        <f t="shared" si="14"/>
-        <v>95</v>
+        <f t="shared" si="20"/>
+        <v>76</v>
       </c>
       <c r="AR29" s="16"/>
       <c r="AS29" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
+        <f t="shared" si="9"/>
+        <v>A2</v>
       </c>
       <c r="AT29" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
+        <f t="shared" si="10"/>
+        <v>B1</v>
       </c>
       <c r="AU29" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
+        <f t="shared" si="11"/>
+        <v>A2</v>
       </c>
       <c r="AV29" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW29" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <f t="shared" si="13"/>
+        <v>B1</v>
       </c>
       <c r="AX29" s="16"/>
       <c r="AY29" s="19">
         <v>500</v>
       </c>
       <c r="AZ29" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>412</v>
       </c>
       <c r="BA29" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="BB29" s="18">
@@ -6287,175 +6305,175 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A30" s="20">
+    <row r="30" spans="1:56">
+      <c r="A30" s="26">
         <v>31</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="26">
         <v>3165</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="27">
         <v>9368694562</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H30" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="R30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U30" s="20">
+      <c r="I30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="26">
         <v>15</v>
       </c>
-      <c r="V30" s="20">
+      <c r="V30" s="26">
         <v>15</v>
       </c>
-      <c r="W30" s="20">
+      <c r="W30" s="26">
         <v>15</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="26">
         <v>15</v>
       </c>
-      <c r="Y30" s="20">
+      <c r="Y30" s="26">
         <v>15</v>
       </c>
-      <c r="Z30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA30" s="20">
-        <v>20</v>
-      </c>
-      <c r="AB30" s="20">
+      <c r="Z30" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA30" s="26">
+        <v>20</v>
+      </c>
+      <c r="AB30" s="26">
         <v>25</v>
       </c>
-      <c r="AC30" s="20">
+      <c r="AC30" s="26">
         <v>26</v>
       </c>
-      <c r="AD30" s="20">
+      <c r="AD30" s="26">
         <v>29</v>
       </c>
-      <c r="AE30" s="20">
-        <v>30</v>
-      </c>
-      <c r="AF30" s="20" t="s">
+      <c r="AE30" s="26">
+        <v>30</v>
+      </c>
+      <c r="AF30" s="26" t="s">
         <v>42</v>
       </c>
       <c r="AG30" s="15">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AH30" s="15">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="AH30" s="15">
+        <v>40</v>
+      </c>
+      <c r="AI30" s="15">
         <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="AI30" s="15">
+        <v>41</v>
+      </c>
+      <c r="AJ30" s="15">
         <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="AJ30" s="15">
+        <v>44</v>
+      </c>
+      <c r="AK30" s="15">
         <f t="shared" si="8"/>
-        <v>44</v>
-      </c>
-      <c r="AK30" s="15">
-        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="AL30" s="15"/>
       <c r="AM30" s="16">
-        <f t="shared" si="10"/>
-        <v>44</v>
+        <f>ROUND(AG30/50*100,0)</f>
+        <v>70</v>
       </c>
       <c r="AN30" s="16">
-        <f t="shared" si="11"/>
-        <v>50</v>
+        <f>ROUND(AH30/50*100,0)</f>
+        <v>80</v>
       </c>
       <c r="AO30" s="16">
-        <f t="shared" si="12"/>
-        <v>51</v>
+        <f>ROUND(AI30/50*100,0)</f>
+        <v>82</v>
       </c>
       <c r="AP30" s="16">
-        <f t="shared" si="13"/>
-        <v>55</v>
+        <f>ROUND(AJ30/50*100,0)</f>
+        <v>88</v>
       </c>
       <c r="AQ30" s="16">
-        <f t="shared" si="14"/>
-        <v>56</v>
+        <f>ROUND(AK30/50*100,0)</f>
+        <v>90</v>
       </c>
       <c r="AR30" s="16"/>
       <c r="AS30" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>C2</v>
+        <f t="shared" si="9"/>
+        <v>B2</v>
       </c>
       <c r="AT30" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
+        <f t="shared" si="10"/>
+        <v>B1</v>
       </c>
       <c r="AU30" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>C1</v>
+        <f t="shared" si="11"/>
+        <v>A2</v>
       </c>
       <c r="AV30" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>C1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW30" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>C1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX30" s="16"/>
       <c r="AY30" s="21">
         <v>250</v>
       </c>
       <c r="AZ30" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>205</v>
       </c>
       <c r="BA30" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>82</v>
       </c>
       <c r="BB30" s="20">
@@ -6464,11 +6482,11 @@
       <c r="BC30" s="20">
         <v>170</v>
       </c>
-      <c r="BD30" s="21">
+      <c r="BD30" s="27">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56">
       <c r="A31" s="18">
         <v>32</v>
       </c>
@@ -6484,7 +6502,7 @@
       <c r="E31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="23" t="s">
         <v>162</v>
       </c>
       <c r="G31" s="19" t="s">
@@ -6566,65 +6584,65 @@
         <v>42</v>
       </c>
       <c r="AG31" s="15">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH31" s="15">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="AH31" s="15">
+        <v>91</v>
+      </c>
+      <c r="AI31" s="15">
         <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="AI31" s="15">
+        <v>89</v>
+      </c>
+      <c r="AJ31" s="15">
         <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="AJ31" s="15">
+        <v>96</v>
+      </c>
+      <c r="AK31" s="15">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="AK31" s="15">
-        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="AL31" s="15"/>
       <c r="AM31" s="16">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="16"/>
+        <v>98</v>
       </c>
       <c r="AN31" s="16">
-        <f t="shared" si="11"/>
-        <v>114</v>
+        <f t="shared" si="17"/>
+        <v>91</v>
       </c>
       <c r="AO31" s="16">
-        <f t="shared" si="12"/>
-        <v>111</v>
+        <f t="shared" si="18"/>
+        <v>89</v>
       </c>
       <c r="AP31" s="16">
-        <f t="shared" si="13"/>
-        <v>120</v>
+        <f t="shared" si="19"/>
+        <v>96</v>
       </c>
       <c r="AQ31" s="16">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" si="20"/>
+        <v>98</v>
       </c>
       <c r="AR31" s="16"/>
       <c r="AS31" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT31" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU31" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
+        <v>A2</v>
+      </c>
+      <c r="AV31" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
-      <c r="AV31" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
       <c r="AW31" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX31" s="16"/>
@@ -6632,11 +6650,11 @@
         <v>500</v>
       </c>
       <c r="AZ31" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>472</v>
       </c>
       <c r="BA31" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
       <c r="BB31" s="18">
@@ -6649,7 +6667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56">
       <c r="A32" s="20">
         <v>33</v>
       </c>
@@ -6665,7 +6683,7 @@
       <c r="E32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="24" t="s">
         <v>163</v>
       </c>
       <c r="G32" s="21" t="s">
@@ -6747,65 +6765,65 @@
         <v>42</v>
       </c>
       <c r="AG32" s="15">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="AH32" s="15">
         <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="AH32" s="15">
+        <v>79</v>
+      </c>
+      <c r="AI32" s="15">
         <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="AI32" s="15">
+        <v>75</v>
+      </c>
+      <c r="AJ32" s="15">
         <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="AJ32" s="15">
+        <v>76</v>
+      </c>
+      <c r="AK32" s="15">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="AK32" s="15">
-        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="AL32" s="15"/>
       <c r="AM32" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AM32:AM33" si="31">ROUND(AG32/80*100,0)</f>
         <v>100</v>
       </c>
       <c r="AN32" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AN32:AN33" si="32">ROUND(AH32/80*100,0)</f>
         <v>99</v>
       </c>
       <c r="AO32" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AO32:AO33" si="33">ROUND(AI32/80*100,0)</f>
         <v>94</v>
       </c>
       <c r="AP32" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AP32:AP33" si="34">ROUND(AJ32/80*100,0)</f>
         <v>95</v>
       </c>
       <c r="AQ32" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AQ32:AQ33" si="35">ROUND(AK32/80*100,0)</f>
         <v>98</v>
       </c>
       <c r="AR32" s="16"/>
       <c r="AS32" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>A1</v>
       </c>
       <c r="AT32" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="AU32" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>A1</v>
       </c>
       <c r="AV32" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
       <c r="AW32" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX32" s="16"/>
@@ -6813,11 +6831,11 @@
         <v>400</v>
       </c>
       <c r="AZ32" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>388</v>
       </c>
       <c r="BA32" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>97</v>
       </c>
       <c r="BB32" s="20">
@@ -6830,7 +6848,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56">
       <c r="A33" s="20">
         <v>34</v>
       </c>
@@ -6846,7 +6864,7 @@
       <c r="E33" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="24" t="s">
         <v>164</v>
       </c>
       <c r="G33" s="21" t="s">
@@ -6928,65 +6946,65 @@
         <v>42</v>
       </c>
       <c r="AG33" s="15">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="AH33" s="15">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="AH33" s="15">
+        <v>54</v>
+      </c>
+      <c r="AI33" s="15">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="AI33" s="15">
+        <v>51</v>
+      </c>
+      <c r="AJ33" s="15">
         <f t="shared" si="7"/>
-        <v>51</v>
-      </c>
-      <c r="AJ33" s="15">
+        <v>55</v>
+      </c>
+      <c r="AK33" s="15">
         <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="AK33" s="15">
-        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="AL33" s="15"/>
       <c r="AM33" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>74</v>
       </c>
       <c r="AN33" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>68</v>
       </c>
       <c r="AO33" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="33"/>
         <v>64</v>
       </c>
       <c r="AP33" s="16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>69</v>
       </c>
       <c r="AQ33" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="35"/>
         <v>71</v>
       </c>
       <c r="AR33" s="16"/>
       <c r="AS33" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>B1</v>
       </c>
       <c r="AT33" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>B2</v>
       </c>
       <c r="AU33" s="16" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>B2</v>
       </c>
       <c r="AV33" s="16" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>B2</v>
       </c>
       <c r="AW33" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>B1</v>
       </c>
       <c r="AX33" s="16"/>
@@ -6994,11 +7012,11 @@
         <v>400</v>
       </c>
       <c r="AZ33" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>276</v>
       </c>
       <c r="BA33" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="BB33" s="20">
@@ -7011,7 +7029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56">
       <c r="A34" s="20">
         <v>35</v>
       </c>
@@ -7027,7 +7045,7 @@
       <c r="E34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="24" t="s">
         <v>165</v>
       </c>
       <c r="G34" s="21" t="s">
@@ -7109,77 +7127,77 @@
         <v>42</v>
       </c>
       <c r="AG34" s="15">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="AH34" s="15">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="AH34" s="15">
+        <v>56</v>
+      </c>
+      <c r="AI34" s="15">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="AI34" s="15">
+      <c r="AJ34" s="15">
         <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="AJ34" s="15">
+        <v>59</v>
+      </c>
+      <c r="AK34" s="15">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="AK34" s="15">
-        <f t="shared" si="9"/>
-        <v>59</v>
-      </c>
       <c r="AL34" s="15"/>
       <c r="AM34" s="16">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f t="shared" si="16"/>
+        <v>60</v>
       </c>
       <c r="AN34" s="16">
-        <f t="shared" si="11"/>
-        <v>70</v>
+        <f t="shared" si="17"/>
+        <v>56</v>
       </c>
       <c r="AO34" s="16">
-        <f t="shared" si="12"/>
-        <v>70</v>
+        <f t="shared" si="18"/>
+        <v>56</v>
       </c>
       <c r="AP34" s="16">
-        <f t="shared" si="13"/>
-        <v>74</v>
+        <f>ROUND(AJ34/70*100,0)</f>
+        <v>84</v>
       </c>
       <c r="AQ34" s="16">
-        <f t="shared" si="14"/>
-        <v>74</v>
+        <f>ROUND(AK34/70*100,0)</f>
+        <v>84</v>
       </c>
       <c r="AR34" s="16"/>
       <c r="AS34" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>B1</v>
+        <f t="shared" si="9"/>
+        <v>C1</v>
       </c>
       <c r="AT34" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>B2</v>
+        <f t="shared" si="10"/>
+        <v>C1</v>
       </c>
       <c r="AU34" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>B2</v>
+        <f t="shared" si="11"/>
+        <v>C1</v>
       </c>
       <c r="AV34" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>B1</v>
+        <f t="shared" si="12"/>
+        <v>A2</v>
       </c>
       <c r="AW34" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
+        <f t="shared" si="13"/>
+        <v>A2</v>
       </c>
       <c r="AX34" s="16"/>
       <c r="AY34" s="21">
         <v>350</v>
       </c>
       <c r="AZ34" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
       <c r="BA34" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>83</v>
       </c>
       <c r="BB34" s="20">
@@ -7192,7 +7210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56">
       <c r="A35" s="18">
         <v>36</v>
       </c>
@@ -7208,7 +7226,7 @@
       <c r="E35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="23" t="s">
         <v>166</v>
       </c>
       <c r="G35" s="19" t="s">
@@ -7290,65 +7308,65 @@
         <v>42</v>
       </c>
       <c r="AG35" s="15">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="AH35" s="15">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="AH35" s="15">
+        <v>87</v>
+      </c>
+      <c r="AI35" s="15">
         <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="AI35" s="15">
+        <v>89</v>
+      </c>
+      <c r="AJ35" s="15">
         <f t="shared" si="7"/>
-        <v>89</v>
-      </c>
-      <c r="AJ35" s="15">
+        <v>96</v>
+      </c>
+      <c r="AK35" s="15">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="AK35" s="15">
-        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AL35" s="15"/>
       <c r="AM35" s="16">
-        <f t="shared" si="10"/>
-        <v>108</v>
+        <f t="shared" si="16"/>
+        <v>86</v>
       </c>
       <c r="AN35" s="16">
-        <f t="shared" si="11"/>
-        <v>109</v>
+        <f t="shared" si="17"/>
+        <v>87</v>
       </c>
       <c r="AO35" s="16">
-        <f t="shared" si="12"/>
-        <v>111</v>
+        <f t="shared" si="18"/>
+        <v>89</v>
       </c>
       <c r="AP35" s="16">
-        <f t="shared" si="13"/>
-        <v>120</v>
+        <f t="shared" si="19"/>
+        <v>96</v>
       </c>
       <c r="AQ35" s="16">
-        <f t="shared" si="14"/>
-        <v>119</v>
+        <f t="shared" si="20"/>
+        <v>95</v>
       </c>
       <c r="AR35" s="16"/>
       <c r="AS35" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
+        <v>A2</v>
+      </c>
+      <c r="AT35" s="16" t="str">
+        <f t="shared" si="10"/>
+        <v>A2</v>
+      </c>
+      <c r="AU35" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>A2</v>
+      </c>
+      <c r="AV35" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>A1</v>
       </c>
-      <c r="AT35" s="16" t="str">
-        <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU35" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV35" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
       <c r="AW35" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>A1</v>
       </c>
       <c r="AX35" s="16"/>
@@ -7356,11 +7374,11 @@
         <v>500</v>
       </c>
       <c r="AZ35" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>453</v>
       </c>
       <c r="BA35" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="BB35" s="18">
@@ -7373,7 +7391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:56">
       <c r="A36" s="18">
         <v>37</v>
       </c>
@@ -7389,7 +7407,7 @@
       <c r="E36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="23" t="s">
         <v>154</v>
       </c>
       <c r="G36" s="19" t="s">
@@ -7471,77 +7489,77 @@
         <v>42</v>
       </c>
       <c r="AG36" s="15">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="AH36" s="15">
         <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="AH36" s="15">
+        <v>67</v>
+      </c>
+      <c r="AI36" s="15">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="AI36" s="15">
+        <v>71</v>
+      </c>
+      <c r="AJ36" s="15">
         <f t="shared" si="7"/>
-        <v>71</v>
-      </c>
-      <c r="AJ36" s="15">
+        <v>84</v>
+      </c>
+      <c r="AK36" s="15">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="AK36" s="15">
-        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="AL36" s="15"/>
       <c r="AM36" s="16">
-        <f t="shared" si="10"/>
-        <v>93</v>
+        <f t="shared" si="16"/>
+        <v>74</v>
       </c>
       <c r="AN36" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="AO36" s="16">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="AP36" s="16">
+        <f t="shared" si="19"/>
         <v>84</v>
       </c>
-      <c r="AO36" s="16">
-        <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="AP36" s="16">
-        <f t="shared" si="13"/>
-        <v>105</v>
-      </c>
       <c r="AQ36" s="16">
-        <f t="shared" si="14"/>
-        <v>90</v>
+        <f t="shared" si="20"/>
+        <v>72</v>
       </c>
       <c r="AR36" s="16"/>
       <c r="AS36" s="16" t="str">
-        <f t="shared" si="15"/>
-        <v>A1</v>
+        <f t="shared" si="9"/>
+        <v>B1</v>
       </c>
       <c r="AT36" s="16" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
+        <v>B2</v>
+      </c>
+      <c r="AU36" s="16" t="str">
+        <f t="shared" si="11"/>
+        <v>B1</v>
+      </c>
+      <c r="AV36" s="16" t="str">
+        <f t="shared" si="12"/>
         <v>A2</v>
       </c>
-      <c r="AU36" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV36" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
       <c r="AW36" s="16" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
+        <f t="shared" si="13"/>
+        <v>B1</v>
       </c>
       <c r="AX36" s="16"/>
       <c r="AY36" s="19">
         <v>500</v>
       </c>
       <c r="AZ36" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>368</v>
       </c>
       <c r="BA36" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="BB36" s="18">
@@ -7555,6 +7573,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AF1"/>
